--- a/sit-wt-runtime/src/main/resources/TestScriptTemplate.xlsx
+++ b/sit-wt-runtime/src/main/resources/TestScriptTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\eclipse\workspace\sitoolkit\sit-wt\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\eclipse\workspace\sitoolkit2\sit-wt-all\sit-wt-runtime\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -154,7 +154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,6 +178,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,10 +465,10 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -519,7 +522,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
